--- a/data/trans_dic/P45C_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,2</t>
+          <t>0,74; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,04</t>
+          <t>0,9; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,86</t>
+          <t>0,55; 2,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,41</t>
+          <t>0,33; 3,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,23</t>
+          <t>0,33; 3,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,01</t>
+          <t>0,83; 3,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,35</t>
+          <t>0,47; 2,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,67</t>
+          <t>0,77; 2,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,91</t>
+          <t>0,9; 2,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,2</t>
+          <t>0,52; 2,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,21</t>
+          <t>0,71; 2,2</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,0</t>
+          <t>0,24; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,08</t>
+          <t>0,5; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,25</t>
+          <t>0,28; 3,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,34</t>
+          <t>0,35; 3,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,3</t>
+          <t>0,53; 3,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,13</t>
+          <t>1,22; 5,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,2</t>
+          <t>0,83; 4,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,71</t>
+          <t>1,25; 4,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,36</t>
+          <t>0,63; 2,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,18</t>
+          <t>1,02; 3,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,89</t>
+          <t>0,87; 2,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,44</t>
+          <t>1,01; 3,57</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1005,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>1,71; 4,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,65</t>
+          <t>0,59; 2,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,44</t>
+          <t>0,43; 3,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,71</t>
+          <t>1,22; 7,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,23</t>
+          <t>0,76; 4,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,57</t>
+          <t>0,39; 3,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,81</t>
+          <t>2,04; 4,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,6</t>
+          <t>0,81; 2,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,82</t>
+          <t>0,55; 3,06</t>
         </is>
       </c>
     </row>
@@ -1144,57 +1145,57 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,47</t>
+          <t>0,97; 2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,8</t>
+          <t>0,59; 1,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,42</t>
+          <t>0,34; 1,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,4</t>
+          <t>0,81; 2,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,73</t>
+          <t>1,24; 3,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,53</t>
+          <t>0,59; 2,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,59</t>
+          <t>0,26; 1,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,01</t>
+          <t>0,4; 1,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,51</t>
+          <t>1,24; 2,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,75</t>
+          <t>0,78; 1,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,28</t>
+          <t>0,44; 1,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,02</t>
+          <t>0,51; 3,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,88</t>
+          <t>0,75; 3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,21</t>
+          <t>0,4; 2,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,07</t>
+          <t>1,09; 4,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,12</t>
+          <t>0,71; 3,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,16</t>
+          <t>0,58; 2,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,01</t>
+          <t>0,42; 2,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,07</t>
+          <t>1,24; 3,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,54</t>
+          <t>0,86; 2,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,12</t>
+          <t>0,86; 2,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,73</t>
+          <t>0,62; 1,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,05</t>
+          <t>1,43; 3,02</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,51</t>
+          <t>0,3; 3,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,85</t>
+          <t>0,76; 5,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,0</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,0</t>
+          <t>0,74; 2,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,62</t>
+          <t>0,99; 2,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,05</t>
+          <t>0,57; 1,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,25</t>
+          <t>0,24; 1,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,03</t>
+          <t>0,77; 1,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,29</t>
+          <t>0,89; 2,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,18</t>
+          <t>0,81; 2,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,94</t>
+          <t>0,34; 2,04</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,27</t>
+          <t>1,26; 2,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,75</t>
+          <t>0,94; 1,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,3</t>
+          <t>0,61; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,22</t>
+          <t>1,11; 2,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,12</t>
+          <t>1,18; 2,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,54</t>
+          <t>0,8; 1,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,8</t>
+          <t>1,02; 1,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,06</t>
+          <t>1,36; 2,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,78</t>
+          <t>1,15; 1,76</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,31</t>
+          <t>0,8; 1,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,8</t>
+          <t>1,16; 1,85</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han sufrido a lo largo de este ultimo año alguna quemadura solar con ampollas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7563</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8395</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7141</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6769</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11628</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12422</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9446</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12179</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3505; 16624</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3922; 18344</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9000</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2803; 14693</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>997; 9850</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1046; 9650</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2824; 12738</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2088; 11119</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5967; 20815</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6705; 22370</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3958; 18027</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6751; 20976</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3447</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5357</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4754</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6256</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5839</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8811</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7458</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9889</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9286</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14168</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12212</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16145</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>889; 9764</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2047; 12036</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1046; 11715</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1563; 17964</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1971; 11451</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4088; 17309</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3057; 15717</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4785; 18198</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4690; 17797</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7648; 23951</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6435; 20724</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8403; 29762</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16144</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8447</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11366</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6045</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4997</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22190</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13444</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13557</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9218; 25831</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3690; 17138</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6520</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2857; 22082</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2049; 12623</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1943; 11686</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2069</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>648; 6053</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14461; 32976</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7140; 21784</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7063</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4568; 25531</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19582</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12077</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8676</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14730</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15610</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10156</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10408</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>35192</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22234</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14817</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>25137</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11953; 31305</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6715; 21324</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3864; 15286</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8334; 23910</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8813; 25124</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4473; 18270</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2141; 12888</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3865; 17979</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24083; 50056</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14824; 33654</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8534; 24418</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14825; 37873</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7863</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10688</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9244</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9265</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7405</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17117</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14055</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>17128</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14025</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27805</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1795; 10881</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3789; 15484</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2454; 13660</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5161; 20952</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4029; 17753</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4379; 17043</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3050; 14822</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10438; 26471</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7925; 23279</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10938; 27381</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8341; 23074</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18790; 39721</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6051</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15548</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17903</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11750</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4502</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19141</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>19775</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17801</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>882; 11382</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6463</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2149; 15189</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17493</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9200; 25399</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10828; 27261</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6173; 20951</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1840; 9142</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11855; 29966</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>12068; 30820</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11059; 29930</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3441; 20378</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>55141</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>44012</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30803</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>53459</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>56351</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55159</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>39523</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>49144</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>111492</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>99171</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>70326</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>102603</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>40993; 72829</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31752; 58875</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20409; 44065</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>37258; 73575</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>42501; 72635</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>41611; 72248</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28171; 54078</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>36507; 64439</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>90401; 134722</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>79788; 121313</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>54899; 88805</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>80536; 128259</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P45C_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
